--- a/Data_preparation/datasets/final_data/NETAPP_INC.xlsx
+++ b/Data_preparation/datasets/final_data/NETAPP_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42027</v>
       </c>
       <c r="D2">
-        <v>45.94428254794989</v>
+        <v>28.83040191256564</v>
       </c>
       <c r="E2">
-        <v>53.31124877929688</v>
+        <v>29.47870635986328</v>
       </c>
       <c r="F2">
-        <v>53.35536055254345</v>
+        <v>30.43209268573849</v>
       </c>
       <c r="G2">
-        <v>45.77517806828758</v>
+        <v>27.3660019125833</v>
       </c>
       <c r="H2">
-        <v>1079000000</v>
+        <v>199618386</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>12305636047</v>
@@ -888,22 +780,22 @@
         <v>42118</v>
       </c>
       <c r="D3">
-        <v>12.74488792780431</v>
+        <v>27.92943773403355</v>
       </c>
       <c r="E3">
-        <v>12.64545917510986</v>
+        <v>25.5924072265625</v>
       </c>
       <c r="F3">
-        <v>13.14260035252423</v>
+        <v>28.33554384091013</v>
       </c>
       <c r="G3">
-        <v>11.79580038219858</v>
+        <v>23.63849510876349</v>
       </c>
       <c r="H3">
-        <v>862100000</v>
+        <v>199618386</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>11260695926</v>
@@ -1016,22 +908,22 @@
         <v>42216</v>
       </c>
       <c r="D4">
-        <v>80.5</v>
+        <v>24.02051053238257</v>
       </c>
       <c r="E4">
-        <v>70.95999908447266</v>
+        <v>24.62930679321289</v>
       </c>
       <c r="F4">
-        <v>80.95999908447266</v>
+        <v>24.88361582238044</v>
       </c>
       <c r="G4">
-        <v>64.29000091552734</v>
+        <v>22.25576908304182</v>
       </c>
       <c r="H4">
-        <v>207519000</v>
+        <v>199618386</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>9500101644</v>
@@ -1132,22 +1024,22 @@
         <v>42307</v>
       </c>
       <c r="D5">
-        <v>24.30973052978516</v>
+        <v>26.29854859553848</v>
       </c>
       <c r="E5">
-        <v>23.86653137207031</v>
+        <v>23.76402854919434</v>
       </c>
       <c r="F5">
-        <v>25.31838989257812</v>
+        <v>26.91861398377902</v>
       </c>
       <c r="G5">
-        <v>22.66938400268555</v>
+        <v>23.3454847817201</v>
       </c>
       <c r="H5">
-        <v>60308678</v>
+        <v>199618386</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>10026614790</v>
@@ -1260,22 +1152,22 @@
         <v>42398</v>
       </c>
       <c r="D6">
-        <v>21.77208002677406</v>
+        <v>16.93152434774502</v>
       </c>
       <c r="E6">
-        <v>21.82173156738281</v>
+        <v>19.39045906066895</v>
       </c>
       <c r="F6">
-        <v>22.31824352975136</v>
+        <v>19.95250081282472</v>
       </c>
       <c r="G6">
-        <v>20.89641115827674</v>
+        <v>16.30703202311279</v>
       </c>
       <c r="H6">
-        <v>14840390000</v>
+        <v>199618386</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>6411107166</v>
@@ -1388,22 +1280,22 @@
         <v>42489</v>
       </c>
       <c r="D7">
-        <v>20.13999938964844</v>
+        <v>18.61860349645597</v>
       </c>
       <c r="E7">
-        <v>14.52000045776367</v>
+        <v>20.0647087097168</v>
       </c>
       <c r="F7">
-        <v>20.25</v>
+        <v>20.67773056163994</v>
       </c>
       <c r="G7">
-        <v>12.52999973297119</v>
+        <v>17.68335032614316</v>
       </c>
       <c r="H7">
-        <v>263895614</v>
+        <v>199618386</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>6833919709</v>
@@ -1504,22 +1396,22 @@
         <v>42580</v>
       </c>
       <c r="D8">
-        <v>67.30164545273598</v>
+        <v>20.82498242605244</v>
       </c>
       <c r="E8">
-        <v>67.94705963134766</v>
+        <v>27.38920783996582</v>
       </c>
       <c r="F8">
-        <v>68.20522681790243</v>
+        <v>28.10185105302864</v>
       </c>
       <c r="G8">
-        <v>66.35835305168469</v>
+        <v>20.44490705260912</v>
       </c>
       <c r="H8">
-        <v>61741703</v>
+        <v>199618386</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>7380112005</v>
@@ -1620,22 +1512,22 @@
         <v>42671</v>
       </c>
       <c r="D9">
-        <v>26.08935555313321</v>
+        <v>27.02183398671808</v>
       </c>
       <c r="E9">
-        <v>32.42730331420898</v>
+        <v>29.1077880859375</v>
       </c>
       <c r="F9">
-        <v>33.05337884225837</v>
+        <v>31.05042923168181</v>
       </c>
       <c r="G9">
-        <v>25.64338327185894</v>
+        <v>24.17156539552661</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>199618386</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>9407828101</v>
@@ -1748,22 +1640,22 @@
         <v>42762</v>
       </c>
       <c r="D10">
-        <v>63.06000137329102</v>
+        <v>30.856978921634</v>
       </c>
       <c r="E10">
-        <v>71.44000244140625</v>
+        <v>33.48242568969727</v>
       </c>
       <c r="F10">
-        <v>73.08000183105469</v>
+        <v>33.76257862750008</v>
       </c>
       <c r="G10">
-        <v>62.2400016784668</v>
+        <v>30.08055375682135</v>
       </c>
       <c r="H10">
-        <v>185748673</v>
+        <v>199618386</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>10398259196</v>
@@ -1867,22 +1759,22 @@
         <v>42853</v>
       </c>
       <c r="D11">
-        <v>105.2824839738816</v>
+        <v>32.17403722646799</v>
       </c>
       <c r="E11">
-        <v>100.4015350341797</v>
+        <v>32.56003189086914</v>
       </c>
       <c r="F11">
-        <v>105.525874177026</v>
+        <v>33.61346633188219</v>
       </c>
       <c r="G11">
-        <v>98.53335616363826</v>
+        <v>31.41009724996153</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>199618386</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>10797410421</v>
@@ -1983,22 +1875,22 @@
         <v>42944</v>
       </c>
       <c r="D12">
-        <v>28.84000015258789</v>
+        <v>35.336034753297</v>
       </c>
       <c r="E12">
-        <v>26.34000015258789</v>
+        <v>31.24636459350586</v>
       </c>
       <c r="F12">
-        <v>29.97999954223633</v>
+        <v>35.42494109551426</v>
       </c>
       <c r="G12">
-        <v>24.48999977111816</v>
+        <v>30.5836121482868</v>
       </c>
       <c r="H12">
-        <v>48253392</v>
+        <v>199618386</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>11817868137</v>
@@ -2111,22 +2003,22 @@
         <v>43035</v>
       </c>
       <c r="D13">
-        <v>27.76754404304676</v>
+        <v>36.32382353963828</v>
       </c>
       <c r="E13">
-        <v>29.36128807067871</v>
+        <v>45.87973022460938</v>
       </c>
       <c r="F13">
-        <v>29.5525363117698</v>
+        <v>46.88647140627459</v>
       </c>
       <c r="G13">
-        <v>27.35772563911961</v>
+        <v>35.64995588389973</v>
       </c>
       <c r="H13">
-        <v>174270076</v>
+        <v>199618386</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>11872031184</v>
@@ -2239,22 +2131,22 @@
         <v>43126</v>
       </c>
       <c r="D14">
-        <v>40.04395874521859</v>
+        <v>50.00074544961775</v>
       </c>
       <c r="E14">
-        <v>41.37875747680664</v>
+        <v>49.33265686035156</v>
       </c>
       <c r="F14">
-        <v>42.73034651222623</v>
+        <v>50.81548793486878</v>
       </c>
       <c r="G14">
-        <v>35.29241164327789</v>
+        <v>42.36660923305432</v>
       </c>
       <c r="H14">
-        <v>4757218036</v>
+        <v>199618386</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>16898592042</v>
@@ -2355,22 +2247,22 @@
         <v>43217</v>
       </c>
       <c r="D15">
-        <v>29.79999923706055</v>
+        <v>54.22461726060622</v>
       </c>
       <c r="E15">
-        <v>26.26000022888184</v>
+        <v>55.84302139282227</v>
       </c>
       <c r="F15">
-        <v>30.10000038146973</v>
+        <v>59.54572660171732</v>
       </c>
       <c r="G15">
-        <v>24.76000022888184</v>
+        <v>52.15666404686269</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>199618386</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>18057990519</v>
@@ -2483,22 +2375,22 @@
         <v>43308</v>
       </c>
       <c r="D16">
-        <v>27.97210020819945</v>
+        <v>63.61856666804504</v>
       </c>
       <c r="E16">
-        <v>28.09128570556641</v>
+        <v>71.32542419433594</v>
       </c>
       <c r="F16">
-        <v>28.76056376347318</v>
+        <v>71.84305311698134</v>
       </c>
       <c r="G16">
-        <v>26.88108696871215</v>
+        <v>63.5199691902756</v>
       </c>
       <c r="H16">
-        <v>174270076</v>
+        <v>199618386</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>20933533511</v>
@@ -2611,22 +2503,22 @@
         <v>43399</v>
       </c>
       <c r="D17">
-        <v>193.5399932861328</v>
+        <v>64.78337122562856</v>
       </c>
       <c r="E17">
-        <v>198.6300048828125</v>
+        <v>55.19959259033203</v>
       </c>
       <c r="F17">
-        <v>201.3699951171875</v>
+        <v>69.29872049002491</v>
       </c>
       <c r="G17">
-        <v>174.6600036621094</v>
+        <v>53.47434415653837</v>
       </c>
       <c r="H17">
-        <v>24003656</v>
+        <v>199618386</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>18620645859</v>
@@ -2739,22 +2631,22 @@
         <v>43490</v>
       </c>
       <c r="D18">
-        <v>159.5487626816853</v>
+        <v>53.29106407476171</v>
       </c>
       <c r="E18">
-        <v>173.8226776123047</v>
+        <v>54.18021774291992</v>
       </c>
       <c r="F18">
-        <v>175.6270923461549</v>
+        <v>56.87261362212891</v>
       </c>
       <c r="G18">
-        <v>155.512558863845</v>
+        <v>50.69008338975419</v>
       </c>
       <c r="H18">
-        <v>2319000000</v>
+        <v>199618386</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>16052692358</v>
@@ -2855,22 +2747,22 @@
         <v>43581</v>
       </c>
       <c r="D19">
-        <v>2.247999906539917</v>
+        <v>61.02393413270417</v>
       </c>
       <c r="E19">
-        <v>1.899999976158142</v>
+        <v>49.46757507324219</v>
       </c>
       <c r="F19">
-        <v>2.303999900817871</v>
+        <v>61.57543379965095</v>
       </c>
       <c r="G19">
-        <v>1.820999979972839</v>
+        <v>48.55676994346013</v>
       </c>
       <c r="H19">
-        <v>594273308</v>
+        <v>199618386</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>17757485747</v>
@@ -2983,22 +2875,22 @@
         <v>43672</v>
       </c>
       <c r="D20">
-        <v>60.4644694886448</v>
+        <v>49.18869937409067</v>
       </c>
       <c r="E20">
-        <v>59.11875152587891</v>
+        <v>40.47267532348633</v>
       </c>
       <c r="F20">
-        <v>61.39157352261505</v>
+        <v>50.26662225233951</v>
       </c>
       <c r="G20">
-        <v>56.74611594136378</v>
+        <v>37.51680406287193</v>
       </c>
       <c r="H20">
-        <v>5817000000</v>
+        <v>199618386</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>14187711474</v>
@@ -3111,22 +3003,22 @@
         <v>43763</v>
       </c>
       <c r="D21">
-        <v>2.049999952316284</v>
+        <v>47.98642698110644</v>
       </c>
       <c r="E21">
-        <v>2.130000114440918</v>
+        <v>51.50571441650391</v>
       </c>
       <c r="F21">
-        <v>2.249000072479248</v>
+        <v>54.34494685712181</v>
       </c>
       <c r="G21">
-        <v>2.000999927520752</v>
+        <v>47.32337052378312</v>
       </c>
       <c r="H21">
-        <v>594273308</v>
+        <v>199618386</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>13325482318</v>
@@ -3239,22 +3131,22 @@
         <v>43854</v>
       </c>
       <c r="D22">
-        <v>23.6926327642264</v>
+        <v>45.83212568610659</v>
       </c>
       <c r="E22">
-        <v>20.75907325744629</v>
+        <v>40.02386856079102</v>
       </c>
       <c r="F22">
-        <v>25.38844422011294</v>
+        <v>52.22292224045783</v>
       </c>
       <c r="G22">
-        <v>19.00478605726309</v>
+        <v>38.45615129113301</v>
       </c>
       <c r="H22">
-        <v>862100000</v>
+        <v>199618386</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>13650209381</v>
@@ -3367,22 +3259,22 @@
         <v>43945</v>
       </c>
       <c r="D23">
-        <v>29.1299991607666</v>
+        <v>36.9114889840923</v>
       </c>
       <c r="E23">
-        <v>36.31999969482422</v>
+        <v>38.61963272094727</v>
       </c>
       <c r="F23">
-        <v>36.45000076293945</v>
+        <v>40.27575061694861</v>
       </c>
       <c r="G23">
-        <v>26.57999992370605</v>
+        <v>34.51835653467458</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>199618386</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>9523882869</v>
@@ -3495,22 +3387,22 @@
         <v>44043</v>
       </c>
       <c r="D24">
-        <v>49.18523125628565</v>
+        <v>38.72356501919104</v>
       </c>
       <c r="E24">
-        <v>44.42190551757812</v>
+        <v>41.5465202331543</v>
       </c>
       <c r="F24">
-        <v>50.24917073284447</v>
+        <v>41.64295708992768</v>
       </c>
       <c r="G24">
-        <v>41.23985008431981</v>
+        <v>35.1378904508386</v>
       </c>
       <c r="H24">
-        <v>1122466035</v>
+        <v>199618386</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>9826462090</v>
@@ -3623,22 +3515,22 @@
         <v>44134</v>
       </c>
       <c r="D25">
-        <v>478.8699951171875</v>
+        <v>39.40195370464413</v>
       </c>
       <c r="E25">
-        <v>490.7000122070313</v>
+        <v>47.24512481689453</v>
       </c>
       <c r="F25">
-        <v>518.72998046875</v>
+        <v>49.38980897752485</v>
       </c>
       <c r="G25">
-        <v>463.4100036621094</v>
+        <v>38.92338664409048</v>
       </c>
       <c r="H25">
-        <v>424926346</v>
+        <v>199618386</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>9743803312</v>
@@ -3751,22 +3643,22 @@
         <v>44225</v>
       </c>
       <c r="D26">
-        <v>239.3500061035156</v>
+        <v>59.66606974150145</v>
       </c>
       <c r="E26">
-        <v>283.4599914550781</v>
+        <v>55.88950729370117</v>
       </c>
       <c r="F26">
-        <v>354.8200073242188</v>
+        <v>63.9961660945531</v>
       </c>
       <c r="G26">
-        <v>235.8800048828125</v>
+        <v>54.60387125996161</v>
       </c>
       <c r="H26">
-        <v>278228356</v>
+        <v>199618386</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>14841688570</v>
@@ -3879,22 +3771,22 @@
         <v>44316</v>
       </c>
       <c r="D27">
-        <v>55.13000106811523</v>
+        <v>67.3005737041848</v>
       </c>
       <c r="E27">
-        <v>54.95000076293945</v>
+        <v>69.52925109863281</v>
       </c>
       <c r="F27">
-        <v>56.47000122070312</v>
+        <v>72.48584010793769</v>
       </c>
       <c r="G27">
-        <v>47.61999893188477</v>
+        <v>65.8627206381978</v>
       </c>
       <c r="H27">
-        <v>150594095</v>
+        <v>199618386</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>16626079669</v>
@@ -4007,22 +3899,22 @@
         <v>44407</v>
       </c>
       <c r="D28">
-        <v>82.94634035907019</v>
+        <v>72.33097004838527</v>
       </c>
       <c r="E28">
-        <v>84.26999664306641</v>
+        <v>80.40491485595703</v>
       </c>
       <c r="F28">
-        <v>86.77550126072052</v>
+        <v>82.5386790242259</v>
       </c>
       <c r="G28">
-        <v>82.34123106917598</v>
+        <v>70.56790541266341</v>
       </c>
       <c r="H28">
-        <v>2850792605</v>
+        <v>199618386</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>17765872388</v>
@@ -4135,22 +4027,22 @@
         <v>44498</v>
       </c>
       <c r="D29">
-        <v>80.87172081815871</v>
+        <v>81.20788714330122</v>
       </c>
       <c r="E29">
-        <v>78.30628967285156</v>
+        <v>80.80784606933594</v>
       </c>
       <c r="F29">
-        <v>84.50996293035827</v>
+        <v>84.36274012674011</v>
       </c>
       <c r="G29">
-        <v>78.21299557369527</v>
+        <v>76.48924480143835</v>
       </c>
       <c r="H29">
-        <v>123248686</v>
+        <v>199618386</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>19970107563</v>
@@ -4263,22 +4155,22 @@
         <v>44589</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>79.23526011787162</v>
       </c>
       <c r="E30">
-        <v>153.5630035400391</v>
+        <v>71.64812469482422</v>
       </c>
       <c r="F30">
-        <v>163.8345031738281</v>
+        <v>84.46398396421768</v>
       </c>
       <c r="G30">
-        <v>138.3329925537109</v>
+        <v>65.85265564532629</v>
       </c>
       <c r="H30">
-        <v>10664912097</v>
+        <v>199618386</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>19198128490</v>
@@ -4391,22 +4283,22 @@
         <v>44680</v>
       </c>
       <c r="D31">
-        <v>150.5399932861328</v>
+        <v>67.58323473613144</v>
       </c>
       <c r="E31">
-        <v>153.7299957275391</v>
+        <v>66.18502044677734</v>
       </c>
       <c r="F31">
-        <v>158.7100067138672</v>
+        <v>70.58202997163593</v>
       </c>
       <c r="G31">
-        <v>132.3200073242188</v>
+        <v>59.40554444659634</v>
       </c>
       <c r="H31">
-        <v>272490000</v>
+        <v>199618386</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>16300795402</v>
@@ -4519,22 +4411,22 @@
         <v>44771</v>
       </c>
       <c r="D32">
-        <v>3.940000057220459</v>
+        <v>66.01632413880586</v>
       </c>
       <c r="E32">
-        <v>3.509999990463257</v>
+        <v>66.87861633300781</v>
       </c>
       <c r="F32">
-        <v>4.380000114440918</v>
+        <v>73.33189688441495</v>
       </c>
       <c r="G32">
-        <v>3.339999914169312</v>
+        <v>65.20966849109313</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>199618386</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>15777512944</v>
@@ -4647,22 +4539,22 @@
         <v>44862</v>
       </c>
       <c r="D33">
-        <v>83.23999786376953</v>
+        <v>65.33424872192228</v>
       </c>
       <c r="E33">
-        <v>75.77999877929688</v>
+        <v>63.15768432617188</v>
       </c>
       <c r="F33">
-        <v>86.87999725341797</v>
+        <v>70.23852086685753</v>
       </c>
       <c r="G33">
-        <v>66.44699859619141</v>
+        <v>60.25248635206163</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>199618386</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>15085179927</v>
@@ -4775,22 +4667,22 @@
         <v>44953</v>
       </c>
       <c r="D34">
-        <v>3.789999961853027</v>
+        <v>62.18377990250935</v>
       </c>
       <c r="E34">
-        <v>3.700000047683716</v>
+        <v>60.78999328613281</v>
       </c>
       <c r="F34">
-        <v>4.099999904632568</v>
+        <v>65.68709266067646</v>
       </c>
       <c r="G34">
-        <v>3.440000057220459</v>
+        <v>59.62222116924617</v>
       </c>
       <c r="H34">
-        <v>72969110</v>
+        <v>199618386</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>14128677818</v>
@@ -4903,22 +4795,22 @@
         <v>45044</v>
       </c>
       <c r="D35">
-        <v>80.47000122070312</v>
+        <v>59.66110051383101</v>
       </c>
       <c r="E35">
-        <v>81.30999755859375</v>
+        <v>62.98351669311523</v>
       </c>
       <c r="F35">
-        <v>87.41999816894531</v>
+        <v>67.03686848752579</v>
       </c>
       <c r="G35">
-        <v>75.16000366210938</v>
+        <v>58.41756991854681</v>
       </c>
       <c r="H35">
-        <v>136895573</v>
+        <v>199618386</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>13452467275</v>
@@ -5022,22 +4914,22 @@
         <v>45135</v>
       </c>
       <c r="D36">
-        <v>572.4199829101562</v>
+        <v>74.05310307481521</v>
       </c>
       <c r="E36">
-        <v>546.52001953125</v>
+        <v>73.28868103027344</v>
       </c>
       <c r="F36">
-        <v>579.1199951171875</v>
+        <v>76.4610201220047</v>
       </c>
       <c r="G36">
-        <v>477.510009765625</v>
+        <v>70.84254215184997</v>
       </c>
       <c r="H36">
-        <v>52693110</v>
+        <v>199618386</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>16408160013</v>
@@ -5150,22 +5042,22 @@
         <v>45226</v>
       </c>
       <c r="D37">
-        <v>204.0399932861328</v>
+        <v>70.00772077155352</v>
       </c>
       <c r="E37">
-        <v>240.0800018310547</v>
+        <v>87.90884399414062</v>
       </c>
       <c r="F37">
-        <v>252.75</v>
+        <v>88.11084395999148</v>
       </c>
       <c r="G37">
-        <v>197.8500061035156</v>
+        <v>69.62295578664545</v>
       </c>
       <c r="H37">
-        <v>3325150886</v>
+        <v>199618386</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>14993292841</v>
@@ -5278,22 +5170,22 @@
         <v>45317</v>
       </c>
       <c r="D38">
-        <v>354.4882078035527</v>
+        <v>84.21239274455721</v>
       </c>
       <c r="E38">
-        <v>364.9865112304687</v>
+        <v>86.22482299804688</v>
       </c>
       <c r="F38">
-        <v>370.4596485847449</v>
+        <v>87.99536744668526</v>
       </c>
       <c r="G38">
-        <v>349.5896494174895</v>
+        <v>81.07765044532302</v>
       </c>
       <c r="H38">
-        <v>622000000</v>
+        <v>199618386</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>18143093999</v>
@@ -5406,22 +5298,22 @@
         <v>45408</v>
       </c>
       <c r="D39">
-        <v>32.91999816894531</v>
+        <v>98.5298510608514</v>
       </c>
       <c r="E39">
-        <v>29.47999954223633</v>
+        <v>117.0673828125</v>
       </c>
       <c r="F39">
-        <v>34.43000030517578</v>
+        <v>118.0880679316807</v>
       </c>
       <c r="G39">
-        <v>29.14999961853028</v>
+        <v>97.44112076148321</v>
       </c>
       <c r="H39">
-        <v>48253392</v>
+        <v>199618386</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>20912147059</v>
@@ -5534,22 +5426,22 @@
         <v>45499</v>
       </c>
       <c r="D40">
-        <v>65.3347813084503</v>
+        <v>123.3924385529623</v>
       </c>
       <c r="E40">
-        <v>75.98967742919922</v>
+        <v>117.8196258544922</v>
       </c>
       <c r="F40">
-        <v>78.74061759069839</v>
+        <v>131.1416699030146</v>
       </c>
       <c r="G40">
-        <v>53.01535875336031</v>
+        <v>110.460778291313</v>
       </c>
       <c r="H40">
-        <v>862100000</v>
+        <v>199618386</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>25961892150</v>
@@ -5662,22 +5554,22 @@
         <v>45590</v>
       </c>
       <c r="D41">
-        <v>171.1399993896484</v>
+        <v>113.263559397181</v>
       </c>
       <c r="E41">
-        <v>336.75</v>
+        <v>120.2028656005859</v>
       </c>
       <c r="F41">
-        <v>344.7699890136719</v>
+        <v>132.7582995743523</v>
       </c>
       <c r="G41">
-        <v>158.3300018310547</v>
+        <v>112.9597221902534</v>
       </c>
       <c r="H41">
-        <v>307636373</v>
+        <v>199618386</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>24453100893</v>
@@ -5790,22 +5682,22 @@
         <v>45681</v>
       </c>
       <c r="D42">
-        <v>29.5</v>
+        <v>117.4167557067094</v>
       </c>
       <c r="E42">
-        <v>23.45000076293945</v>
+        <v>98.26736450195312</v>
       </c>
       <c r="F42">
-        <v>35.97999954223633</v>
+        <v>125.8050698651996</v>
       </c>
       <c r="G42">
-        <v>22.81999969482422</v>
+        <v>96.00291711140476</v>
       </c>
       <c r="H42">
-        <v>134349704</v>
+        <v>199618386</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>25616609424</v>
@@ -5918,22 +5810,22 @@
         <v>45772</v>
       </c>
       <c r="D43">
-        <v>160.2100067138672</v>
+        <v>89.17720953135699</v>
       </c>
       <c r="E43">
-        <v>168.3200073242188</v>
+        <v>98.25347137451172</v>
       </c>
       <c r="F43">
-        <v>174.2599945068359</v>
+        <v>101.2359481614489</v>
       </c>
       <c r="G43">
-        <v>151.6699981689453</v>
+        <v>88.33498184215667</v>
       </c>
       <c r="H43">
-        <v>119792704</v>
+        <v>199618386</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>17991749209</v>
@@ -6046,22 +5938,22 @@
         <v>45863</v>
       </c>
       <c r="D44">
-        <v>77.06999969482422</v>
+        <v>102.0660508656801</v>
       </c>
       <c r="E44">
-        <v>62.86999893188477</v>
+        <v>112.3015289306641</v>
       </c>
       <c r="F44">
-        <v>80.05999755859375</v>
+        <v>117.7279229814402</v>
       </c>
       <c r="G44">
-        <v>62.61999893188477</v>
+        <v>100.1244913860024</v>
       </c>
       <c r="H44">
-        <v>862100000</v>
+        <v>199618386</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>21026425040</v>
